--- a/ig/document/StructureDefinition-medcom-document-version-id-extension.xlsx
+++ b/ig/document/StructureDefinition-medcom-document-version-id-extension.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-15T06:44:26+01:00</t>
+    <t>2025-05-07T10:50:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -691,42 +691,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.07421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/document/StructureDefinition-medcom-document-version-id-extension.xlsx
+++ b/ig/document/StructureDefinition-medcom-document-version-id-extension.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-15T06:44:26+01:00</t>
+    <t>2025-05-07T11:07:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -691,42 +691,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.07421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/document/StructureDefinition-medcom-document-version-id-extension.xlsx
+++ b/ig/document/StructureDefinition-medcom-document-version-id-extension.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-15T06:44:26+01:00</t>
+    <t>2025-05-08T09:53:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -691,42 +691,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.07421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/document/StructureDefinition-medcom-document-version-id-extension.xlsx
+++ b/ig/document/StructureDefinition-medcom-document-version-id-extension.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-15T06:44:26+01:00</t>
+    <t>2025-05-08T10:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -691,42 +691,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.07421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/document/StructureDefinition-medcom-document-version-id-extension.xlsx
+++ b/ig/document/StructureDefinition-medcom-document-version-id-extension.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-15T06:44:26+01:00</t>
+    <t>2025-05-08T10:28:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -691,42 +691,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.07421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/document/StructureDefinition-medcom-document-version-id-extension.xlsx
+++ b/ig/document/StructureDefinition-medcom-document-version-id-extension.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-15T06:44:26+01:00</t>
+    <t>2025-05-12T13:09:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -691,42 +691,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.07421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/document/StructureDefinition-medcom-document-version-id-extension.xlsx
+++ b/ig/document/StructureDefinition-medcom-document-version-id-extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="111">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T13:09:34+00:00</t>
+    <t>2026-01-14T10:37:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,178 +72,181 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>MedCom (http://www.medcom.dk)</t>
+    <t>MedCom (http://www.medcom.dk, fhir@medcom.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Extension containing information about the version of the DocumentReference for a specific standard. The version is included in the R5 version of the resource.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>complex-type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>element:Element</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Extension containing information about the version of the DocumentReference for a specific standard. The version is included in the R5 version of the resource.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>complex-type</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>Base Definition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Derivation</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>Context</t>
-  </si>
-  <si>
-    <t>element:Element</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t>0</t>
@@ -851,26 +854,26 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -881,585 +884,585 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
